--- a/RO/RO_Week_1_Data.xlsx
+++ b/RO/RO_Week_1_Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steven/Desktop/5_CHEE_301B/CHEE_301B_Repo/RO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{133E0711-BBAD-F046-AA55-D465A1B99B6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590E7213-1975-014C-A072-36674AD9B1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{5C059B2B-D63E-4144-8DAC-3D80433595BB}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
-<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xlrd="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
   <metadataTypes count="1">
     <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
   </metadataTypes>
@@ -59,10 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="10">
-  <si>
-    <t>Concentration (g/L)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
   <si>
     <t>Run</t>
   </si>
@@ -88,7 +85,22 @@
     <t>Average</t>
   </si>
   <si>
-    <t>Conductivity (mS)</t>
+    <t>Conductivity_(mS)</t>
+  </si>
+  <si>
+    <t>Concentration_(g/L)</t>
+  </si>
+  <si>
+    <t>Conductivity_A_(mS)</t>
+  </si>
+  <si>
+    <t>Conductivity_C_(mS)</t>
+  </si>
+  <si>
+    <t>Conductivity_Mean_(mS)</t>
+  </si>
+  <si>
+    <t>Conductivity_B_(mS)</t>
   </si>
 </sst>
 </file>
@@ -133,7 +145,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -141,6 +153,9 @@
     </xf>
     <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,10 +491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B53EA0F8-F041-5641-9775-29037CF8BE5D}">
-  <dimension ref="A3:L13"/>
+  <dimension ref="A3:O13"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="L5" sqref="L5"/>
+    <sheetView topLeftCell="C1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="M17" sqref="M17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -487,58 +502,67 @@
     <col min="3" max="3" width="17.5" customWidth="1"/>
     <col min="4" max="4" width="19.6640625" customWidth="1"/>
     <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="12" max="12" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="14" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
       <c r="D3" t="s">
+        <v>1</v>
+      </c>
+      <c r="H3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="I3" s="2"/>
       <c r="J3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>1</v>
-      </c>
-      <c r="C4" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="E4" t="s">
         <v>5</v>
       </c>
-      <c r="E4" t="s">
+      <c r="F4" t="s">
         <v>6</v>
       </c>
-      <c r="F4" t="s">
+      <c r="G4" t="s">
         <v>7</v>
       </c>
-      <c r="G4" t="s">
-        <v>8</v>
-      </c>
       <c r="H4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I4" t="s">
         <v>5</v>
       </c>
-      <c r="I4" t="s">
+      <c r="J4" t="s">
         <v>6</v>
       </c>
-      <c r="J4" t="s">
+      <c r="K4" t="s">
         <v>7</v>
       </c>
-      <c r="K4" t="s">
-        <v>8</v>
-      </c>
       <c r="L4" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+        <v>8</v>
+      </c>
+      <c r="M4" t="s">
+        <v>8</v>
+      </c>
+      <c r="N4" t="s">
+        <v>8</v>
+      </c>
+      <c r="O4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>8</v>
       </c>
@@ -564,12 +588,24 @@
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
-      <c r="L5" s="3">
+      <c r="L5">
+        <f>D5/1000</f>
+        <v>0.51519999999999999</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:N5" si="0">E5/1000</f>
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="0"/>
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="O5" s="3">
         <f>G5/1000</f>
         <v>0.51446666666666674</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>8</v>
       </c>
@@ -589,18 +625,30 @@
         <v>1026</v>
       </c>
       <c r="G6">
-        <f t="shared" ref="G6:G8" si="0">AVERAGE(D6:F6)</f>
+        <f t="shared" ref="G6:G8" si="1">AVERAGE(D6:F6)</f>
         <v>1027.6666666666667</v>
       </c>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
-      <c r="L6" s="3">
-        <f t="shared" ref="L6:L13" si="1">G6/1000</f>
+      <c r="L6">
+        <f t="shared" ref="L6:L9" si="2">D6/1000</f>
+        <v>1.03</v>
+      </c>
+      <c r="M6">
+        <f t="shared" ref="M6:M9" si="3">E6/1000</f>
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="N6">
+        <f t="shared" ref="N6:N9" si="4">F6/1000</f>
+        <v>1.026</v>
+      </c>
+      <c r="O6" s="3">
+        <f>G6/1000</f>
         <v>1.0276666666666667</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>8</v>
       </c>
@@ -620,18 +668,30 @@
         <v>1410</v>
       </c>
       <c r="G7">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1412.6666666666667</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
-      <c r="L7" s="3">
-        <f t="shared" si="1"/>
+      <c r="L7">
+        <f t="shared" si="2"/>
+        <v>1.415</v>
+      </c>
+      <c r="M7">
+        <f t="shared" si="3"/>
+        <v>1.413</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="4"/>
+        <v>1.41</v>
+      </c>
+      <c r="O7" s="3">
+        <f>G7/1000</f>
         <v>1.4126666666666667</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>8</v>
       </c>
@@ -651,18 +711,30 @@
         <v>1949</v>
       </c>
       <c r="G8">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1953</v>
       </c>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
-      <c r="L8" s="3">
-        <f t="shared" si="1"/>
+      <c r="L8">
+        <f t="shared" si="2"/>
+        <v>1.9570000000000001</v>
+      </c>
+      <c r="M8">
+        <f t="shared" si="3"/>
         <v>1.9530000000000001</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="N8">
+        <f t="shared" si="4"/>
+        <v>1.9490000000000001</v>
+      </c>
+      <c r="O8" s="3">
+        <f>G8/1000</f>
+        <v>1.9530000000000001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>9</v>
       </c>
@@ -688,12 +760,24 @@
         <f>AVERAGE(H9:J9)</f>
         <v>3.8666666666666667</v>
       </c>
-      <c r="L9" s="3" cm="1">
-        <f t="array" ref="L9:L12">K9:K12</f>
+      <c r="L9">
+        <f>H9</f>
+        <v>3.88</v>
+      </c>
+      <c r="M9">
+        <f t="shared" ref="M9:N9" si="5">I9</f>
+        <v>3.87</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="5"/>
+        <v>3.85</v>
+      </c>
+      <c r="O9" s="3" cm="1">
+        <f t="array" ref="O9:O12">K9:K12</f>
         <v>3.8666666666666667</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
@@ -716,14 +800,26 @@
         <v>5.68</v>
       </c>
       <c r="K10">
-        <f t="shared" ref="K10:K12" si="2">AVERAGE(H10:J10)</f>
+        <f t="shared" ref="K10:K12" si="6">AVERAGE(H10:J10)</f>
         <v>5.68</v>
       </c>
-      <c r="L10" s="3">
+      <c r="L10">
+        <f t="shared" ref="L10:L12" si="7">H10</f>
+        <v>5.69</v>
+      </c>
+      <c r="M10">
+        <f t="shared" ref="M10:M12" si="8">I10</f>
+        <v>5.67</v>
+      </c>
+      <c r="N10">
+        <f t="shared" ref="N10:N12" si="9">J10</f>
         <v>5.68</v>
       </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="O10" s="3">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>9</v>
       </c>
@@ -746,14 +842,26 @@
         <v>7.35</v>
       </c>
       <c r="K11">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>7.3900000000000006</v>
       </c>
-      <c r="L11" s="3">
+      <c r="L11">
+        <f t="shared" si="7"/>
+        <v>7.41</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="8"/>
+        <v>7.41</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="9"/>
+        <v>7.35</v>
+      </c>
+      <c r="O11" s="3">
         <v>7.3900000000000006</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>9</v>
       </c>
@@ -776,14 +884,26 @@
         <v>8.9700000000000006</v>
       </c>
       <c r="K12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="6"/>
         <v>8.9866666666666664</v>
       </c>
-      <c r="L12" s="3">
+      <c r="L12">
+        <f t="shared" si="7"/>
+        <v>8.98</v>
+      </c>
+      <c r="M12">
+        <f t="shared" si="8"/>
+        <v>9.01</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="9"/>
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="O12" s="3">
         <v>8.9866666666666664</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>5</v>
       </c>
@@ -803,11 +923,23 @@
         <v>24.6</v>
       </c>
       <c r="G13">
-        <f t="shared" ref="G13" si="3">AVERAGE(D13:F13)</f>
+        <f t="shared" ref="G13" si="10">AVERAGE(D13:F13)</f>
         <v>24.733333333333334</v>
       </c>
-      <c r="L13" s="3">
-        <f t="shared" si="1"/>
+      <c r="L13">
+        <f>D13/1000</f>
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:N13" si="11">E13/1000</f>
+        <v>2.46E-2</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="11"/>
+        <v>2.46E-2</v>
+      </c>
+      <c r="O13" s="3">
+        <f>G13/1000</f>
         <v>2.4733333333333333E-2</v>
       </c>
     </row>
@@ -821,156 +953,248 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120BDF62-A907-5144-9F4F-7E27C0D820FF}">
-  <dimension ref="B4:E13"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="4" max="4" width="16.33203125" customWidth="1"/>
+    <col min="1" max="3" width="17.33203125" customWidth="1"/>
+    <col min="4" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B4" t="str" cm="1">
-        <f t="array" ref="B4:D13">Sheet1!A4:C13</f>
+    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.2">
+      <c r="A1" s="4" t="str" cm="1">
+        <f t="array" ref="A1:C10">Sheet1!A4:C13</f>
         <v>Probe</v>
       </c>
-      <c r="C4" t="str">
+      <c r="B1" s="4" t="str">
         <v>Run</v>
       </c>
-      <c r="D4" t="str">
-        <v>Concentration (g/L)</v>
-      </c>
-      <c r="E4" t="str" cm="1">
-        <f t="array" ref="E4:E13">Sheet1!L4:L13</f>
-        <v>Conductivity (mS)</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C1" s="4" t="str">
+        <v>Concentration_(g/L)</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>8</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>0.25</v>
+      </c>
+      <c r="D2" cm="1">
+        <f t="array" ref="D2:F10">Sheet1!L5:N13</f>
+        <v>0.51519999999999999</v>
+      </c>
+      <c r="E2">
+        <v>0.51419999999999999</v>
+      </c>
+      <c r="F2">
+        <v>0.51400000000000001</v>
+      </c>
+      <c r="G2" cm="1">
+        <f t="array" ref="G2:G10">Sheet1!O5:O13</f>
+        <v>0.51446666666666674</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>0.5</v>
+      </c>
+      <c r="D3">
+        <v>1.03</v>
+      </c>
+      <c r="E3">
+        <v>1.0269999999999999</v>
+      </c>
+      <c r="F3">
+        <v>1.026</v>
+      </c>
+      <c r="G3">
+        <v>1.0276666666666667</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>0.75</v>
+      </c>
+      <c r="D4">
+        <v>1.415</v>
+      </c>
+      <c r="E4">
+        <v>1.413</v>
+      </c>
+      <c r="F4">
+        <v>1.41</v>
+      </c>
+      <c r="G4">
+        <v>1.4126666666666667</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>8</v>
+      </c>
       <c r="B5">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5">
-        <v>0.25</v>
+        <v>1.9570000000000001</v>
       </c>
       <c r="E5">
-        <v>0.51446666666666674</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.2">
+        <v>1.9530000000000001</v>
+      </c>
+      <c r="F5">
+        <v>1.9490000000000001</v>
+      </c>
+      <c r="G5">
+        <v>1.9530000000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>9</v>
+      </c>
       <c r="B6">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C6">
         <v>2</v>
       </c>
       <c r="D6">
-        <v>0.5</v>
+        <v>3.88</v>
       </c>
       <c r="E6">
-        <v>1.0276666666666667</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.2">
+        <v>3.87</v>
+      </c>
+      <c r="F6">
+        <v>3.85</v>
+      </c>
+      <c r="G6">
+        <v>3.8666666666666667</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>9</v>
+      </c>
       <c r="B7">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
-        <v>0.75</v>
+        <v>5.69</v>
       </c>
       <c r="E7">
-        <v>1.4126666666666667</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+        <v>5.67</v>
+      </c>
+      <c r="F7">
+        <v>5.68</v>
+      </c>
+      <c r="G7">
+        <v>5.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>9</v>
+      </c>
       <c r="B8">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C8">
         <v>4</v>
       </c>
       <c r="D8">
-        <v>1</v>
+        <v>7.41</v>
       </c>
       <c r="E8">
-        <v>1.9530000000000001</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+        <v>7.41</v>
+      </c>
+      <c r="F8">
+        <v>7.35</v>
+      </c>
+      <c r="G8">
+        <v>7.3900000000000006</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>9</v>
+      </c>
       <c r="B9">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C9">
         <v>5</v>
       </c>
       <c r="D9">
-        <v>2</v>
+        <v>8.98</v>
       </c>
       <c r="E9">
-        <v>3.8666666666666667</v>
-      </c>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+        <v>9.01</v>
+      </c>
+      <c r="F9">
+        <v>8.9700000000000006</v>
+      </c>
+      <c r="G9">
+        <v>8.9866666666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>5</v>
+      </c>
       <c r="B10">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>3</v>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E10">
-        <v>5.68</v>
-      </c>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B11">
-        <v>9</v>
-      </c>
-      <c r="C11">
-        <v>7</v>
-      </c>
-      <c r="D11">
-        <v>4</v>
-      </c>
-      <c r="E11">
-        <v>7.3900000000000006</v>
-      </c>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B12">
-        <v>9</v>
-      </c>
-      <c r="C12">
-        <v>8</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12">
-        <v>8.9866666666666664</v>
-      </c>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.2">
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13">
-        <v>0</v>
-      </c>
-      <c r="D13">
-        <v>0</v>
-      </c>
-      <c r="E13">
+        <v>2.46E-2</v>
+      </c>
+      <c r="F10">
+        <v>2.46E-2</v>
+      </c>
+      <c r="G10">
         <v>2.4733333333333333E-2</v>
       </c>
     </row>

--- a/RO/RO_Week_1_Data.xlsx
+++ b/RO/RO_Week_1_Data.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/steven/Desktop/5_CHEE_301B/CHEE_301B_Repo/RO/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{590E7213-1975-014C-A072-36674AD9B1F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5EF773AB-8744-D24A-8C29-7FBE8A13AB59}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5180" yWindow="1800" windowWidth="28040" windowHeight="17440" activeTab="1" xr2:uid="{5C059B2B-D63E-4144-8DAC-3D80433595BB}"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="20360" activeTab="1" xr2:uid="{5C059B2B-D63E-4144-8DAC-3D80433595BB}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Results" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="13">
   <si>
     <t>Run</t>
   </si>
@@ -95,9 +95,6 @@
   </si>
   <si>
     <t>Conductivity_C_(mS)</t>
-  </si>
-  <si>
-    <t>Conductivity_Mean_(mS)</t>
   </si>
   <si>
     <t>Conductivity_B_(mS)</t>
@@ -108,7 +105,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.00000"/>
+    <numFmt numFmtId="164" formatCode="0.00000"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -148,14 +145,14 @@
   <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -509,11 +506,11 @@
       <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="H3" s="2" t="s">
+      <c r="H3" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
@@ -600,7 +597,7 @@
         <f t="shared" si="0"/>
         <v>0.51400000000000001</v>
       </c>
-      <c r="O5" s="3">
+      <c r="O5" s="2">
         <f>G5/1000</f>
         <v>0.51446666666666674</v>
       </c>
@@ -632,18 +629,18 @@
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
       <c r="L6">
-        <f t="shared" ref="L6:L9" si="2">D6/1000</f>
+        <f t="shared" ref="L6:L8" si="2">D6/1000</f>
         <v>1.03</v>
       </c>
       <c r="M6">
-        <f t="shared" ref="M6:M9" si="3">E6/1000</f>
+        <f t="shared" ref="M6:M8" si="3">E6/1000</f>
         <v>1.0269999999999999</v>
       </c>
       <c r="N6">
-        <f t="shared" ref="N6:N9" si="4">F6/1000</f>
+        <f t="shared" ref="N6:N8" si="4">F6/1000</f>
         <v>1.026</v>
       </c>
-      <c r="O6" s="3">
+      <c r="O6" s="2">
         <f>G6/1000</f>
         <v>1.0276666666666667</v>
       </c>
@@ -686,7 +683,7 @@
         <f t="shared" si="4"/>
         <v>1.41</v>
       </c>
-      <c r="O7" s="3">
+      <c r="O7" s="2">
         <f>G7/1000</f>
         <v>1.4126666666666667</v>
       </c>
@@ -729,7 +726,7 @@
         <f t="shared" si="4"/>
         <v>1.9490000000000001</v>
       </c>
-      <c r="O8" s="3">
+      <c r="O8" s="2">
         <f>G8/1000</f>
         <v>1.9530000000000001</v>
       </c>
@@ -772,7 +769,7 @@
         <f t="shared" si="5"/>
         <v>3.85</v>
       </c>
-      <c r="O9" s="3" cm="1">
+      <c r="O9" s="2" cm="1">
         <f t="array" ref="O9:O12">K9:K12</f>
         <v>3.8666666666666667</v>
       </c>
@@ -815,7 +812,7 @@
         <f t="shared" ref="N10:N12" si="9">J10</f>
         <v>5.68</v>
       </c>
-      <c r="O10" s="3">
+      <c r="O10" s="2">
         <v>5.68</v>
       </c>
     </row>
@@ -857,7 +854,7 @@
         <f t="shared" si="9"/>
         <v>7.35</v>
       </c>
-      <c r="O11" s="3">
+      <c r="O11" s="2">
         <v>7.3900000000000006</v>
       </c>
     </row>
@@ -899,7 +896,7 @@
         <f t="shared" si="9"/>
         <v>8.9700000000000006</v>
       </c>
-      <c r="O12" s="3">
+      <c r="O12" s="2">
         <v>8.9866666666666664</v>
       </c>
     </row>
@@ -938,7 +935,7 @@
         <f t="shared" si="11"/>
         <v>2.46E-2</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="2">
         <f>G13/1000</f>
         <v>2.4733333333333333E-2</v>
       </c>
@@ -955,63 +952,57 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{120BDF62-A907-5144-9F4F-7E27C0D820FF}">
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" zoomScale="108" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="3" width="17.33203125" customWidth="1"/>
-    <col min="4" max="7" width="12.6640625" customWidth="1"/>
+    <col min="4" max="6" width="19.83203125" customWidth="1"/>
+    <col min="7" max="7" width="12.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="34" x14ac:dyDescent="0.2">
-      <c r="A1" s="4" t="str" cm="1">
-        <f t="array" ref="A1:C10">Sheet1!A4:C13</f>
-        <v>Probe</v>
-      </c>
-      <c r="B1" s="4" t="str">
-        <v>Run</v>
-      </c>
-      <c r="C1" s="4" t="str">
-        <v>Concentration_(g/L)</v>
-      </c>
-      <c r="D1" s="4" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F1" s="4" t="s">
+      <c r="E1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F1" t="s">
         <v>11</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>12</v>
-      </c>
+      <c r="G1" s="3"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2">
-        <v>0.25</v>
+        <v>0</v>
       </c>
       <c r="D2" cm="1">
-        <f t="array" ref="D2:F10">Sheet1!L5:N13</f>
-        <v>0.51519999999999999</v>
+        <f t="array" ref="D2:F2">Sheet1!L13:N13</f>
+        <v>2.5000000000000001E-2</v>
       </c>
       <c r="E2">
-        <v>0.51419999999999999</v>
+        <v>2.46E-2</v>
       </c>
       <c r="F2">
-        <v>0.51400000000000001</v>
-      </c>
-      <c r="G2" cm="1">
-        <f t="array" ref="G2:G10">Sheet1!O5:O13</f>
-        <v>0.51446666666666674</v>
+        <v>2.46E-2</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
@@ -1019,22 +1010,20 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
-      </c>
-      <c r="D3">
-        <v>1.03</v>
+        <v>0.25</v>
+      </c>
+      <c r="D3" cm="1">
+        <f t="array" ref="D3:F10">Sheet1!L5:N12</f>
+        <v>0.51519999999999999</v>
       </c>
       <c r="E3">
-        <v>1.0269999999999999</v>
+        <v>0.51419999999999999</v>
       </c>
       <c r="F3">
-        <v>1.026</v>
-      </c>
-      <c r="G3">
-        <v>1.0276666666666667</v>
+        <v>0.51400000000000001</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1042,22 +1031,19 @@
         <v>8</v>
       </c>
       <c r="B4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C4">
-        <v>0.75</v>
+        <v>0.5</v>
       </c>
       <c r="D4">
-        <v>1.415</v>
+        <v>1.03</v>
       </c>
       <c r="E4">
-        <v>1.413</v>
+        <v>1.0269999999999999</v>
       </c>
       <c r="F4">
-        <v>1.41</v>
-      </c>
-      <c r="G4">
-        <v>1.4126666666666667</v>
+        <v>1.026</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1065,45 +1051,39 @@
         <v>8</v>
       </c>
       <c r="B5">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="D5">
-        <v>1.9570000000000001</v>
+        <v>1.415</v>
       </c>
       <c r="E5">
-        <v>1.9530000000000001</v>
+        <v>1.413</v>
       </c>
       <c r="F5">
-        <v>1.9490000000000001</v>
-      </c>
-      <c r="G5">
-        <v>1.9530000000000001</v>
+        <v>1.41</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B6">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D6">
-        <v>3.88</v>
+        <v>1.9570000000000001</v>
       </c>
       <c r="E6">
-        <v>3.87</v>
+        <v>1.9530000000000001</v>
       </c>
       <c r="F6">
-        <v>3.85</v>
-      </c>
-      <c r="G6">
-        <v>3.8666666666666667</v>
+        <v>1.9490000000000001</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1111,22 +1091,19 @@
         <v>9</v>
       </c>
       <c r="B7">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D7">
-        <v>5.69</v>
+        <v>3.88</v>
       </c>
       <c r="E7">
-        <v>5.67</v>
+        <v>3.87</v>
       </c>
       <c r="F7">
-        <v>5.68</v>
-      </c>
-      <c r="G7">
-        <v>5.68</v>
+        <v>3.85</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1134,22 +1111,19 @@
         <v>9</v>
       </c>
       <c r="B8">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C8">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8">
-        <v>7.41</v>
+        <v>5.69</v>
       </c>
       <c r="E8">
-        <v>7.41</v>
+        <v>5.67</v>
       </c>
       <c r="F8">
-        <v>7.35</v>
-      </c>
-      <c r="G8">
-        <v>7.3900000000000006</v>
+        <v>5.68</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1157,45 +1131,39 @@
         <v>9</v>
       </c>
       <c r="B9">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C9">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>8.98</v>
+        <v>7.41</v>
       </c>
       <c r="E9">
-        <v>9.01</v>
+        <v>7.41</v>
       </c>
       <c r="F9">
-        <v>8.9700000000000006</v>
-      </c>
-      <c r="G9">
-        <v>8.9866666666666664</v>
+        <v>7.35</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="C10">
         <v>5</v>
       </c>
-      <c r="B10">
-        <v>0</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
       <c r="D10">
-        <v>2.5000000000000001E-2</v>
+        <v>8.98</v>
       </c>
       <c r="E10">
-        <v>2.46E-2</v>
+        <v>9.01</v>
       </c>
       <c r="F10">
-        <v>2.46E-2</v>
-      </c>
-      <c r="G10">
-        <v>2.4733333333333333E-2</v>
+        <v>8.9700000000000006</v>
       </c>
     </row>
   </sheetData>
